--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625350.851328241</v>
+        <v>2623098.771617034</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.7363964403881</v>
       </c>
       <c r="Y2" t="n">
-        <v>120.5381589265369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -789,7 +789,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>114.3606976213222</v>
       </c>
       <c r="W4" t="n">
-        <v>106.487396086228</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>78.55873581869056</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>16.61609021060037</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>148.4348925031072</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.8252283396949</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>147.2077150633797</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.08168074437116</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>88.89700561060583</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.33703994143232</v>
+        <v>129.1078928223839</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968488</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.154071768027</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1576.753911832149</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>364.5418494269123</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269123</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>813.3239794684597</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>585.3344285704424</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>364.5418494269123</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150266</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082761</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>198.8933197100319</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4644,52 +4644,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>761.4675832528366</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>761.4675832528366</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>761.4675832528366</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>761.4675832528366</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W7" t="n">
-        <v>761.4675832528366</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="X7" t="n">
-        <v>533.4780323548192</v>
+        <v>216.4463512838068</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.4780323548192</v>
+        <v>216.4463512838068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0920506559568</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0920506559568</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9891837816003</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387522</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>313.6498276407349</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.85724849720478</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703137</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424068</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138438</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703137</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908938</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5473,13 +5473,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>962.6357307816141</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>793.6995478537073</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611854</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7023,19 +7023,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,25 +7783,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.27843307678</v>
+        <v>19.50758019582844</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988314</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941883</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852747</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="13">
@@ -26314,13 +26314,13 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520052</v>
@@ -26329,31 +26329,31 @@
         <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
@@ -26424,25 +26424,25 @@
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="G4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="G4" t="n">
-        <v>16046.58397189199</v>
-      </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
+        <v>455302.7312259807</v>
+      </c>
+      <c r="D6" t="n">
         <v>455302.7312259808</v>
       </c>
-      <c r="D6" t="n">
-        <v>455302.731225981</v>
-      </c>
       <c r="E6" t="n">
-        <v>203135.7041488504</v>
+        <v>203100.9662234148</v>
       </c>
       <c r="F6" t="n">
-        <v>528548.1659562062</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="G6" t="n">
-        <v>528548.165956206</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="H6" t="n">
-        <v>528548.1659562059</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="I6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="J6" t="n">
-        <v>311016.9635589283</v>
+        <v>310982.2256334928</v>
       </c>
       <c r="K6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.42803077</v>
       </c>
       <c r="L6" t="n">
-        <v>528548.1659562057</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="M6" t="n">
-        <v>443493.138020694</v>
+        <v>443458.4000952585</v>
       </c>
       <c r="N6" t="n">
-        <v>528548.1659562056</v>
+        <v>528513.4280307705</v>
       </c>
       <c r="O6" t="n">
-        <v>528548.1659562057</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="P6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.42803077</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.142112354499564e-15</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,7 +26796,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>240.9947042380809</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.6997797295168</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,22 +27588,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="W4" t="n">
-        <v>180.035602250363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>328.3173099230208</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>332.6248785068126</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.81192859552067</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,16 +27822,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>31.94379699174695</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>103.7874568955223</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.7502994375661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>100.8720197208361</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.55795384873636e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066269</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
